--- a/page/eb09/s01/eb09-s01.xlsx
+++ b/page/eb09/s01/eb09-s01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eb-corpus\production\eb09\s01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp2\page\eb09\s01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9925AE6A-81B1-4CB8-9753-078900770843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="2685" windowWidth="21735" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="2685" windowWidth="21735" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="eb09-s01" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="551">
   <si>
     <t>eb09-s01</t>
   </si>
@@ -39,21 +38,9 @@
     <t>scan-by</t>
   </si>
   <si>
-    <t>output-date</t>
-  </si>
-  <si>
-    <t>notes-prd</t>
-  </si>
-  <si>
     <t>tei-fn.xml</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>encyclopediabrit21newyrich_raw_0138</t>
   </si>
   <si>
@@ -1605,21 +1592,9 @@
     <t>p-vol</t>
   </si>
   <si>
-    <t>table with footnote; ok</t>
-  </si>
-  <si>
-    <t>Both footnotes labeled "1"</t>
-  </si>
-  <si>
     <t>bf &amp; tg</t>
   </si>
   <si>
-    <t>Sanskrit; double reference to footnote #2: added second copy of note text to html.</t>
-  </si>
-  <si>
-    <t>footnote for prior page col 1; fixed in tei-p</t>
-  </si>
-  <si>
     <t>full-page geneological chart needs to be added; included title in TEI-p</t>
   </si>
   <si>
@@ -1629,28 +1604,85 @@
     <t>Added "SS" as entry term to tei; special character, hebrew in footnote</t>
   </si>
   <si>
-    <t>footnote continues on next page; fixed in tei-p; added &lt;pb n="154"/&gt; to note text.</t>
-  </si>
-  <si>
-    <t>footnote continues on next page; fixed in tei-p; added &lt;pb n="202"/&gt;</t>
-  </si>
-  <si>
-    <t>Sanskrit, double reference to fn 5; duplicated note text in tei.</t>
-  </si>
-  <si>
-    <t>Sanskrit, double reference to footnote #2 (first and second column); duplicated note text in tei-p.</t>
-  </si>
-  <si>
     <t>added @@ to n.6 in tei-p</t>
   </si>
   <si>
     <t>Add @@@ to tei.</t>
+  </si>
+  <si>
+    <t>output-dt</t>
+  </si>
+  <si>
+    <t>valid-dt</t>
+  </si>
+  <si>
+    <t>cleanup-dt</t>
+  </si>
+  <si>
+    <t>afr-comments</t>
+  </si>
+  <si>
+    <t>tei-p-comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footnote continues on next page; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">footnote for prior page col 1; </t>
+  </si>
+  <si>
+    <t>fixed in tei-p</t>
+  </si>
+  <si>
+    <t>fixed in tei-p; added &lt;pb n="202"/&gt;</t>
+  </si>
+  <si>
+    <t>table with footnote;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanskrit, double reference to fn 5; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanskrit, double reference to footnote #2 (first and second column); </t>
+  </si>
+  <si>
+    <t>duplicated note text in tei-p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanskrit; double reference to footnote #2: </t>
+  </si>
+  <si>
+    <t>list runs over to next page</t>
+  </si>
+  <si>
+    <t>tables need correction</t>
+  </si>
+  <si>
+    <t>fixed in tei-p; added &lt;pb n="154"/&gt; to note text. Corrected 2 tables</t>
+  </si>
+  <si>
+    <t>duplicated n2 in tei-p; removed &lt;list&gt;</t>
+  </si>
+  <si>
+    <t>created table in tei-p</t>
+  </si>
+  <si>
+    <t>&lt;list&gt; removed</t>
+  </si>
+  <si>
+    <t>&lt;list&gt; removed; table corrected</t>
+  </si>
+  <si>
+    <t>removed &lt;list&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1692,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1727,20 +1759,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2020,25 +2054,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105:L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,37 +2083,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>532</v>
+      <c r="E1" s="13" t="s">
+        <v>524</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>5</v>
+      <c r="I1" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>530</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>21</v>
@@ -2085,31 +2125,29 @@
         <v>120</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2" s="13">
-        <v>43483</v>
+        <v>522</v>
+      </c>
+      <c r="G2" s="12">
+        <v>43608</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I2" s="6">
-        <v>43506</v>
-      </c>
-      <c r="J2" s="17">
-        <v>43506</v>
-      </c>
+        <v>43608</v>
+      </c>
+      <c r="J2" s="15"/>
       <c r="K2" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>21</v>
@@ -2118,20 +2156,20 @@
         <v>121</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I3" s="8"/>
       <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>21</v>
@@ -2140,18 +2178,18 @@
         <v>122</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="8"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>21</v>
@@ -2160,18 +2198,18 @@
         <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="8"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
         <v>21</v>
@@ -2180,20 +2218,20 @@
         <v>124</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" s="8"/>
       <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <v>21</v>
@@ -2202,20 +2240,20 @@
         <v>125</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" s="8"/>
       <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>21</v>
@@ -2224,18 +2262,18 @@
         <v>126</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I8" s="8"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4">
         <v>21</v>
@@ -2244,18 +2282,18 @@
         <v>127</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I9" s="8"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
         <v>21</v>
@@ -2264,18 +2302,18 @@
         <v>128</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="8"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4">
         <v>21</v>
@@ -2284,18 +2322,18 @@
         <v>129</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="8"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4">
         <v>21</v>
@@ -2304,18 +2342,18 @@
         <v>130</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="8"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4">
         <v>21</v>
@@ -2324,18 +2362,18 @@
         <v>131</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I13" s="8"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
         <v>21</v>
@@ -2344,18 +2382,18 @@
         <v>132</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" s="8"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4">
         <v>21</v>
@@ -2364,18 +2402,18 @@
         <v>133</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I15" s="8"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4">
         <v>21</v>
@@ -2384,10 +2422,10 @@
         <v>134</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I16" s="8"/>
       <c r="K16" s="3"/>
@@ -2395,7 +2433,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
         <v>21</v>
@@ -2404,10 +2442,10 @@
         <v>135</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I17" s="8"/>
       <c r="K17" s="3"/>
@@ -2415,7 +2453,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4">
         <v>21</v>
@@ -2424,10 +2462,10 @@
         <v>136</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I18" s="8"/>
       <c r="K18" s="3"/>
@@ -2435,7 +2473,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4">
         <v>21</v>
@@ -2444,10 +2482,10 @@
         <v>137</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I19" s="8"/>
       <c r="K19" s="3"/>
@@ -2455,7 +2493,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <v>21</v>
@@ -2464,10 +2502,10 @@
         <v>138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I20" s="8"/>
       <c r="K20" s="9"/>
@@ -2475,7 +2513,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4">
         <v>21</v>
@@ -2484,10 +2522,10 @@
         <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I21" s="8"/>
       <c r="K21" s="3"/>
@@ -2495,7 +2533,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -2504,10 +2542,10 @@
         <v>140</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I22" s="8"/>
       <c r="K22" s="10"/>
@@ -2515,7 +2553,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4">
         <v>21</v>
@@ -2524,10 +2562,10 @@
         <v>141</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I23" s="8"/>
       <c r="K23" s="3"/>
@@ -2535,7 +2573,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4">
         <v>21</v>
@@ -2544,20 +2582,20 @@
         <v>142</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I24" s="8"/>
       <c r="K24" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4">
         <v>21</v>
@@ -2566,10 +2604,10 @@
         <v>143</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I25" s="8"/>
       <c r="K25" s="3"/>
@@ -2577,7 +2615,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4">
         <v>21</v>
@@ -2586,10 +2624,10 @@
         <v>144</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I26" s="8"/>
       <c r="K26" s="3"/>
@@ -2597,7 +2635,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4">
         <v>21</v>
@@ -2606,10 +2644,10 @@
         <v>145</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I27" s="8"/>
       <c r="K27" s="3"/>
@@ -2617,7 +2655,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4">
         <v>21</v>
@@ -2626,20 +2664,20 @@
         <v>146</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I28" s="8"/>
       <c r="K28" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4">
         <v>21</v>
@@ -2648,10 +2686,10 @@
         <v>147</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I29" s="8"/>
       <c r="K29" s="3"/>
@@ -2659,7 +2697,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4">
         <v>21</v>
@@ -2668,10 +2706,10 @@
         <v>148</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I30" s="8"/>
       <c r="K30" s="11"/>
@@ -2679,7 +2717,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4">
         <v>21</v>
@@ -2688,10 +2726,10 @@
         <v>149</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I31" s="8"/>
       <c r="K31" s="3"/>
@@ -2699,7 +2737,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4">
         <v>21</v>
@@ -2708,18 +2746,18 @@
         <v>150</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I32" s="8"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4">
         <v>21</v>
@@ -2728,18 +2766,18 @@
         <v>151</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I33" s="8"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C34" s="4">
         <v>21</v>
@@ -2748,18 +2786,18 @@
         <v>152</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I34" s="8"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4">
         <v>21</v>
@@ -2768,20 +2806,23 @@
         <v>153</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I35" s="8"/>
       <c r="K35" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="L35" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" s="4">
         <v>21</v>
@@ -2790,20 +2831,23 @@
         <v>154</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I36" s="8"/>
       <c r="K36" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="L36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4">
         <v>21</v>
@@ -2812,18 +2856,18 @@
         <v>155</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I37" s="8"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4">
         <v>21</v>
@@ -2832,18 +2876,18 @@
         <v>156</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I38" s="8"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4">
         <v>21</v>
@@ -2852,18 +2896,18 @@
         <v>157</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I39" s="8"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" s="4">
         <v>21</v>
@@ -2872,18 +2916,18 @@
         <v>158</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I40" s="8"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4">
         <v>21</v>
@@ -2892,18 +2936,18 @@
         <v>159</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I41" s="8"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42" s="4">
         <v>21</v>
@@ -2912,18 +2956,18 @@
         <v>160</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I42" s="8"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C43" s="4">
         <v>21</v>
@@ -2932,18 +2976,18 @@
         <v>161</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I43" s="8"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4">
         <v>21</v>
@@ -2952,18 +2996,18 @@
         <v>162</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I44" s="8"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="4">
         <v>21</v>
@@ -2972,18 +3016,18 @@
         <v>163</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I45" s="8"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="4">
         <v>21</v>
@@ -2992,18 +3036,18 @@
         <v>164</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I46" s="8"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C47" s="4">
         <v>21</v>
@@ -3012,18 +3056,18 @@
         <v>165</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I47" s="8"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C48" s="4">
         <v>21</v>
@@ -3032,10 +3076,10 @@
         <v>166</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I48" s="8"/>
       <c r="K48" s="3"/>
@@ -3043,7 +3087,7 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C49" s="4">
         <v>21</v>
@@ -3052,18 +3096,18 @@
         <v>167</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I49" s="8"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4">
         <v>21</v>
@@ -3072,10 +3116,10 @@
         <v>168</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I50" s="8"/>
       <c r="K50" s="3"/>
@@ -3083,7 +3127,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51" s="4">
         <v>21</v>
@@ -3092,10 +3136,10 @@
         <v>169</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I51" s="8"/>
       <c r="K51" s="3"/>
@@ -3103,7 +3147,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4">
         <v>21</v>
@@ -3112,10 +3156,10 @@
         <v>170</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I52" s="8"/>
       <c r="K52" s="3"/>
@@ -3123,7 +3167,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4">
         <v>21</v>
@@ -3132,10 +3176,10 @@
         <v>171</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I53" s="8"/>
       <c r="K53" s="3"/>
@@ -3143,7 +3187,7 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4">
         <v>21</v>
@@ -3152,10 +3196,10 @@
         <v>172</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I54" s="8"/>
       <c r="K54" s="3"/>
@@ -3163,7 +3207,7 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4">
         <v>21</v>
@@ -3172,10 +3216,10 @@
         <v>173</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I55" s="8"/>
       <c r="K55" s="3"/>
@@ -3183,7 +3227,7 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4">
         <v>21</v>
@@ -3192,10 +3236,10 @@
         <v>174</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I56" s="8"/>
       <c r="K56" s="3"/>
@@ -3203,7 +3247,7 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C57" s="4">
         <v>21</v>
@@ -3212,10 +3256,10 @@
         <v>175</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I57" s="8"/>
       <c r="K57" s="3"/>
@@ -3223,7 +3267,7 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4">
         <v>21</v>
@@ -3232,10 +3276,10 @@
         <v>176</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I58" s="8"/>
       <c r="K58" s="3"/>
@@ -3243,39 +3287,39 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4">
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I59" s="8"/>
       <c r="K59" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4">
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I60" s="8"/>
       <c r="K60" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C61" s="4">
         <v>21</v>
@@ -3284,10 +3328,10 @@
         <v>177</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I61" s="8"/>
       <c r="K61" s="3"/>
@@ -3295,7 +3339,7 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C62" s="4">
         <v>21</v>
@@ -3304,10 +3348,10 @@
         <v>178</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I62" s="8"/>
       <c r="K62" s="3"/>
@@ -3315,7 +3359,7 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C63" s="4">
         <v>21</v>
@@ -3324,10 +3368,10 @@
         <v>179</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I63" s="8"/>
       <c r="K63" s="3"/>
@@ -3335,7 +3379,7 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C64" s="4">
         <v>21</v>
@@ -3344,18 +3388,18 @@
         <v>180</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I64" s="8"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4">
         <v>21</v>
@@ -3364,18 +3408,21 @@
         <v>181</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I65" s="8"/>
       <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4">
         <v>21</v>
@@ -3384,18 +3431,18 @@
         <v>182</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I66" s="8"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4">
         <v>21</v>
@@ -3404,18 +3451,18 @@
         <v>183</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I67" s="8"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C68" s="4">
         <v>21</v>
@@ -3424,18 +3471,18 @@
         <v>184</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I68" s="8"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4">
         <v>21</v>
@@ -3444,18 +3491,21 @@
         <v>185</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I69" s="8"/>
       <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C70" s="4">
         <v>21</v>
@@ -3464,19 +3514,19 @@
         <v>186</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F70" s="3"/>
       <c r="H70" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I70" s="8"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C71" s="4">
         <v>21</v>
@@ -3485,19 +3535,19 @@
         <v>187</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F71" s="3"/>
       <c r="H71" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I71" s="8"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4">
         <v>21</v>
@@ -3506,19 +3556,19 @@
         <v>188</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F72" s="3"/>
       <c r="H72" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I72" s="8"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4">
         <v>21</v>
@@ -3527,19 +3577,19 @@
         <v>189</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F73" s="3"/>
       <c r="H73" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I73" s="8"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C74" s="4">
         <v>21</v>
@@ -3548,19 +3598,19 @@
         <v>190</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F74" s="3"/>
       <c r="H74" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I74" s="8"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4">
         <v>21</v>
@@ -3569,19 +3619,19 @@
         <v>191</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F75" s="3"/>
       <c r="H75" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I75" s="8"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4">
         <v>21</v>
@@ -3590,19 +3640,19 @@
         <v>192</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F76" s="3"/>
       <c r="H76" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I76" s="8"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C77" s="4">
         <v>21</v>
@@ -3611,19 +3661,19 @@
         <v>193</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F77" s="3"/>
       <c r="H77" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I77" s="8"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C78" s="4">
         <v>21</v>
@@ -3632,19 +3682,19 @@
         <v>194</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F78" s="3"/>
       <c r="H78" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I78" s="8"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C79" s="4">
         <v>21</v>
@@ -3653,19 +3703,19 @@
         <v>195</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F79" s="3"/>
       <c r="H79" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I79" s="8"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4">
         <v>21</v>
@@ -3674,19 +3724,19 @@
         <v>196</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F80" s="3"/>
       <c r="H80" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I80" s="8"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C81" s="4">
         <v>21</v>
@@ -3695,19 +3745,19 @@
         <v>197</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F81" s="3"/>
       <c r="H81" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I81" s="8"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C82" s="4">
         <v>21</v>
@@ -3716,19 +3766,19 @@
         <v>198</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F82" s="3"/>
       <c r="H82" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I82" s="8"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C83" s="4">
         <v>21</v>
@@ -3737,19 +3787,19 @@
         <v>199</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F83" s="3"/>
       <c r="H83" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I83" s="8"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C84" s="4">
         <v>21</v>
@@ -3758,19 +3808,19 @@
         <v>200</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F84" s="3"/>
       <c r="H84" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I84" s="8"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C85" s="4">
         <v>21</v>
@@ -3779,21 +3829,24 @@
         <v>201</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F85" s="3"/>
       <c r="H85" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I85" s="8"/>
       <c r="K85" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="L85" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C86" s="4">
         <v>21</v>
@@ -3802,21 +3855,24 @@
         <v>202</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F86" s="3"/>
       <c r="H86" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I86" s="8"/>
       <c r="K86" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="L86" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4">
         <v>21</v>
@@ -3825,19 +3881,19 @@
         <v>203</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F87" s="3"/>
       <c r="H87" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I87" s="8"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C88" s="4">
         <v>21</v>
@@ -3846,19 +3902,19 @@
         <v>204</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F88" s="3"/>
       <c r="H88" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I88" s="8"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C89" s="4">
         <v>21</v>
@@ -3867,19 +3923,19 @@
         <v>205</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F89" s="3"/>
       <c r="H89" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I89" s="8"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C90" s="4">
         <v>21</v>
@@ -3888,19 +3944,19 @@
         <v>206</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F90" s="3"/>
       <c r="H90" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I90" s="8"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C91" s="4">
         <v>21</v>
@@ -3909,21 +3965,21 @@
         <v>207</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F91" s="3"/>
       <c r="H91" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I91" s="8"/>
-      <c r="K91" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C92" s="4">
         <v>21</v>
@@ -3932,19 +3988,19 @@
         <v>208</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F92" s="7"/>
       <c r="H92" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I92" s="8"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C93" s="4">
         <v>21</v>
@@ -3953,19 +4009,19 @@
         <v>209</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F93" s="7"/>
       <c r="H93" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I93" s="8"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C94" s="4">
         <v>21</v>
@@ -3974,19 +4030,19 @@
         <v>210</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F94" s="3"/>
       <c r="H94" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I94" s="8"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C95" s="4">
         <v>21</v>
@@ -3995,19 +4051,19 @@
         <v>211</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F95" s="3"/>
       <c r="H95" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I95" s="8"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C96" s="4">
         <v>21</v>
@@ -4016,21 +4072,18 @@
         <v>212</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F96" s="3"/>
       <c r="H96" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I96" s="8"/>
-      <c r="K96" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C97" s="4">
         <v>21</v>
@@ -4039,19 +4092,19 @@
         <v>213</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F97" s="3"/>
       <c r="H97" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I97" s="8"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C98" s="4">
         <v>21</v>
@@ -4060,19 +4113,24 @@
         <v>214</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F98" s="3"/>
       <c r="H98" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I98" s="8"/>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="L98" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C99" s="4">
         <v>21</v>
@@ -4081,19 +4139,22 @@
         <v>215</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F99" s="3"/>
       <c r="H99" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I99" s="8"/>
       <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C100" s="4">
         <v>21</v>
@@ -4102,19 +4163,22 @@
         <v>216</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F100" s="3"/>
       <c r="H100" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I100" s="8"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C101" s="4">
         <v>21</v>
@@ -4123,19 +4187,19 @@
         <v>217</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F101" s="3"/>
       <c r="H101" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I101" s="8"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C102" s="4">
         <v>21</v>
@@ -4144,19 +4208,19 @@
         <v>218</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F102" s="3"/>
       <c r="H102" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I102" s="8"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C103" s="4">
         <v>21</v>
@@ -4165,19 +4229,19 @@
         <v>219</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F103" s="3"/>
       <c r="H103" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I103" s="8"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C104" s="4">
         <v>21</v>
@@ -4186,19 +4250,19 @@
         <v>220</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F104" s="3"/>
       <c r="H104" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I104" s="8"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C105" s="4">
         <v>21</v>
@@ -4207,19 +4271,22 @@
         <v>221</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F105" s="3"/>
       <c r="H105" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I105" s="8"/>
       <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C106" s="4">
         <v>21</v>
@@ -4228,19 +4295,22 @@
         <v>222</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F106" s="3"/>
       <c r="H106" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I106" s="8"/>
       <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C107" s="4">
         <v>21</v>
@@ -4249,19 +4319,22 @@
         <v>223</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F107" s="3"/>
       <c r="H107" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I107" s="8"/>
       <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C108" s="4">
         <v>21</v>
@@ -4270,19 +4343,22 @@
         <v>224</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F108" s="3"/>
       <c r="H108" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I108" s="8"/>
       <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C109" s="4">
         <v>21</v>
@@ -4291,19 +4367,19 @@
         <v>225</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F109" s="3"/>
       <c r="H109" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I109" s="8"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C110" s="4">
         <v>21</v>
@@ -4312,19 +4388,19 @@
         <v>226</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F110" s="3"/>
       <c r="H110" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I110" s="8"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C111" s="4">
         <v>21</v>
@@ -4333,19 +4409,19 @@
         <v>227</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F111" s="3"/>
       <c r="H111" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I111" s="8"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C112" s="4">
         <v>21</v>
@@ -4354,19 +4430,19 @@
         <v>228</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F112" s="3"/>
       <c r="H112" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I112" s="8"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C113" s="4">
         <v>21</v>
@@ -4375,19 +4451,19 @@
         <v>229</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F113" s="3"/>
       <c r="H113" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I113" s="8"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C114" s="4">
         <v>21</v>
@@ -4396,19 +4472,19 @@
         <v>230</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F114" s="3"/>
       <c r="H114" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I114" s="8"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C115" s="4">
         <v>21</v>
@@ -4417,19 +4493,19 @@
         <v>231</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F115" s="3"/>
       <c r="H115" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I115" s="8"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C116" s="4">
         <v>21</v>
@@ -4438,19 +4514,19 @@
         <v>232</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F116" s="3"/>
       <c r="H116" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I116" s="8"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C117" s="4">
         <v>21</v>
@@ -4459,19 +4535,19 @@
         <v>233</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F117" s="3"/>
       <c r="H117" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I117" s="8"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C118" s="4">
         <v>21</v>
@@ -4480,19 +4556,22 @@
         <v>234</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F118" s="3"/>
       <c r="H118" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I118" s="8"/>
       <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C119" s="4">
         <v>21</v>
@@ -4501,21 +4580,19 @@
         <v>235</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F119" s="3"/>
       <c r="H119" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I119" s="8"/>
-      <c r="K119" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C120" s="4">
         <v>21</v>
@@ -4524,19 +4601,19 @@
         <v>236</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F120" s="3"/>
       <c r="H120" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I120" s="8"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C121" s="4">
         <v>21</v>
@@ -4545,21 +4622,21 @@
         <v>237</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F121" s="3"/>
       <c r="H121" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I121" s="8"/>
       <c r="K121" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C122" s="4">
         <v>21</v>
@@ -4568,19 +4645,19 @@
         <v>238</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F122" s="3"/>
       <c r="H122" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I122" s="8"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C123" s="4">
         <v>21</v>
@@ -4589,19 +4666,19 @@
         <v>239</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F123" s="3"/>
       <c r="H123" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I123" s="8"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C124" s="4">
         <v>21</v>
@@ -4610,19 +4687,19 @@
         <v>240</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F124" s="3"/>
       <c r="H124" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I124" s="8"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C125" s="4">
         <v>21</v>
@@ -4631,19 +4708,19 @@
         <v>241</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F125" s="3"/>
       <c r="H125" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I125" s="8"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C126" s="4">
         <v>21</v>
@@ -4652,19 +4729,19 @@
         <v>242</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F126" s="3"/>
       <c r="H126" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I126" s="8"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C127" s="4">
         <v>21</v>
@@ -4673,21 +4750,21 @@
         <v>243</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F127" s="3"/>
       <c r="H127" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I127" s="8"/>
       <c r="K127" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C128" s="4">
         <v>21</v>
@@ -4696,11 +4773,11 @@
         <v>244</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F128" s="3"/>
       <c r="H128" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I128" s="8"/>
       <c r="K128" s="3"/>
@@ -4708,7 +4785,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C129" s="4">
         <v>21</v>
@@ -4717,11 +4794,11 @@
         <v>245</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F129" s="3"/>
       <c r="H129" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I129" s="8"/>
       <c r="K129" s="3"/>
@@ -4729,7 +4806,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C130" s="4">
         <v>21</v>
@@ -4738,11 +4815,11 @@
         <v>246</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F130" s="3"/>
       <c r="H130" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I130" s="8"/>
       <c r="K130" s="3"/>
@@ -4750,7 +4827,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C131" s="4">
         <v>21</v>
@@ -4759,11 +4836,11 @@
         <v>247</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F131" s="3"/>
       <c r="H131" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I131" s="8"/>
       <c r="K131" s="3"/>
@@ -4771,7 +4848,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C132" s="4">
         <v>21</v>
@@ -4780,11 +4857,11 @@
         <v>248</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F132" s="3"/>
       <c r="H132" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I132" s="8"/>
       <c r="K132" s="3"/>
@@ -4792,7 +4869,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C133" s="4">
         <v>21</v>
@@ -4801,11 +4878,11 @@
         <v>249</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F133" s="3"/>
       <c r="H133" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I133" s="8"/>
       <c r="K133" s="3"/>
@@ -4813,7 +4890,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C134" s="4">
         <v>21</v>
@@ -4822,11 +4899,11 @@
         <v>250</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F134" s="3"/>
       <c r="H134" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I134" s="8"/>
       <c r="K134" s="3"/>
@@ -4834,7 +4911,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C135" s="4">
         <v>21</v>
@@ -4843,11 +4920,11 @@
         <v>251</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F135" s="3"/>
       <c r="H135" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I135" s="8"/>
       <c r="K135" s="3"/>
@@ -4855,7 +4932,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C136" s="4">
         <v>21</v>
@@ -4864,21 +4941,21 @@
         <v>252</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F136" s="3"/>
       <c r="H136" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I136" s="8"/>
       <c r="K136" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C137" s="4">
         <v>21</v>
@@ -4887,11 +4964,11 @@
         <v>253</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F137" s="3"/>
       <c r="H137" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I137" s="8"/>
       <c r="K137" s="3"/>
@@ -4899,7 +4976,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C138" s="4">
         <v>21</v>
@@ -4908,11 +4985,11 @@
         <v>254</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F138" s="3"/>
       <c r="H138" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I138" s="8"/>
       <c r="K138" s="3"/>
@@ -4920,7 +4997,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C139" s="4">
         <v>21</v>
@@ -4929,21 +5006,21 @@
         <v>255</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F139" s="3"/>
       <c r="H139" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I139" s="8"/>
       <c r="K139" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C140" s="4">
         <v>21</v>
@@ -4952,11 +5029,11 @@
         <v>256</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F140" s="3"/>
       <c r="H140" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I140" s="8"/>
       <c r="K140" s="3"/>
@@ -4964,7 +5041,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C141" s="4">
         <v>21</v>
@@ -4973,11 +5050,11 @@
         <v>257</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F141" s="3"/>
       <c r="H141" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I141" s="8"/>
       <c r="K141" s="3"/>
@@ -4985,7 +5062,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C142" s="4">
         <v>21</v>
@@ -4994,11 +5071,11 @@
         <v>258</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F142" s="7"/>
       <c r="H142" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I142" s="8"/>
       <c r="K142" s="3"/>
@@ -5006,7 +5083,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C143" s="4">
         <v>21</v>
@@ -5015,11 +5092,11 @@
         <v>259</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F143" s="7"/>
       <c r="H143" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I143" s="8"/>
       <c r="K143" s="3"/>
@@ -5027,7 +5104,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C144" s="4">
         <v>21</v>
@@ -5036,19 +5113,19 @@
         <v>260</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F144" s="7"/>
       <c r="H144" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I144" s="8"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C145" s="4">
         <v>21</v>
@@ -5057,19 +5134,19 @@
         <v>261</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F145" s="7"/>
       <c r="H145" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I145" s="8"/>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C146" s="4">
         <v>21</v>
@@ -5078,19 +5155,19 @@
         <v>262</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F146" s="3"/>
       <c r="H146" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I146" s="8"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C147" s="4">
         <v>21</v>
@@ -5099,19 +5176,19 @@
         <v>263</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F147" s="3"/>
       <c r="H147" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I147" s="8"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C148" s="4">
         <v>21</v>
@@ -5120,19 +5197,19 @@
         <v>264</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F148" s="3"/>
       <c r="H148" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I148" s="8"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C149" s="4">
         <v>21</v>
@@ -5141,19 +5218,19 @@
         <v>265</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F149" s="3"/>
       <c r="H149" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I149" s="8"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C150" s="4">
         <v>21</v>
@@ -5162,19 +5239,19 @@
         <v>266</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F150" s="3"/>
       <c r="H150" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I150" s="8"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C151" s="4">
         <v>21</v>
@@ -5183,19 +5260,19 @@
         <v>267</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F151" s="3"/>
       <c r="H151" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I151" s="8"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C152" s="4">
         <v>21</v>
@@ -5204,19 +5281,19 @@
         <v>268</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F152" s="3"/>
       <c r="H152" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I152" s="8"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C153" s="4">
         <v>21</v>
@@ -5225,21 +5302,21 @@
         <v>269</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F153" s="3"/>
       <c r="H153" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I153" s="8"/>
       <c r="K153" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C154" s="4">
         <v>21</v>
@@ -5248,21 +5325,21 @@
         <v>270</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F154" s="3"/>
       <c r="H154" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I154" s="8"/>
       <c r="K154" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C155" s="4">
         <v>21</v>
@@ -5271,21 +5348,21 @@
         <v>271</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F155" s="3"/>
       <c r="H155" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I155" s="8"/>
       <c r="K155" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C156" s="4">
         <v>21</v>
@@ -5294,21 +5371,21 @@
         <v>272</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F156" s="3"/>
       <c r="H156" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I156" s="8"/>
       <c r="K156" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C157" s="4">
         <v>21</v>
@@ -5317,21 +5394,21 @@
         <v>273</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F157" s="3"/>
       <c r="H157" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I157" s="8"/>
       <c r="K157" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C158" s="4">
         <v>21</v>
@@ -5340,21 +5417,21 @@
         <v>274</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F158" s="3"/>
       <c r="H158" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I158" s="8"/>
       <c r="K158" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C159" s="4">
         <v>21</v>
@@ -5363,21 +5440,21 @@
         <v>275</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F159" s="3"/>
       <c r="H159" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I159" s="8"/>
       <c r="K159" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C160" s="4">
         <v>21</v>
@@ -5386,21 +5463,24 @@
         <v>276</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F160" s="3"/>
       <c r="H160" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I160" s="8"/>
       <c r="K160" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="L160" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C161" s="4">
         <v>21</v>
@@ -5409,21 +5489,21 @@
         <v>277</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F161" s="3"/>
       <c r="H161" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I161" s="8"/>
       <c r="K161" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C162" s="4">
         <v>21</v>
@@ -5432,21 +5512,24 @@
         <v>278</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F162" s="3"/>
       <c r="H162" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I162" s="8"/>
       <c r="K162" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="L162" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C163" s="4">
         <v>21</v>
@@ -5455,21 +5538,21 @@
         <v>279</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F163" s="3"/>
       <c r="H163" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I163" s="8"/>
       <c r="K163" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C164" s="4">
         <v>21</v>
@@ -5478,21 +5561,21 @@
         <v>280</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F164" s="3"/>
       <c r="H164" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I164" s="8"/>
       <c r="K164" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
@@ -5501,21 +5584,21 @@
         <v>281</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F165" s="3"/>
       <c r="H165" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I165" s="8"/>
       <c r="K165" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C166" s="4">
         <v>21</v>
@@ -5524,21 +5607,21 @@
         <v>282</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F166" s="3"/>
       <c r="H166" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I166" s="8"/>
       <c r="K166" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C167" s="4">
         <v>21</v>
@@ -5547,21 +5630,21 @@
         <v>283</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F167" s="3"/>
       <c r="H167" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I167" s="8"/>
       <c r="K167" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C168" s="4">
         <v>21</v>
@@ -5570,21 +5653,21 @@
         <v>284</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F168" s="3"/>
       <c r="H168" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I168" s="8"/>
       <c r="K168" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C169" s="4">
         <v>21</v>
@@ -5593,21 +5676,21 @@
         <v>285</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F169" s="3"/>
       <c r="H169" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I169" s="8"/>
       <c r="K169" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C170" s="4">
         <v>21</v>
@@ -5616,21 +5699,21 @@
         <v>286</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F170" s="3"/>
       <c r="H170" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I170" s="8"/>
       <c r="K170" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C171" s="4">
         <v>21</v>
@@ -5639,21 +5722,21 @@
         <v>287</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F171" s="3"/>
       <c r="H171" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I171" s="8"/>
       <c r="K171" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C172" s="4">
         <v>21</v>
@@ -5662,21 +5745,21 @@
         <v>288</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F172" s="3"/>
       <c r="H172" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I172" s="8"/>
       <c r="K172" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C173" s="4">
         <v>21</v>
@@ -5685,21 +5768,21 @@
         <v>289</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F173" s="3"/>
       <c r="H173" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I173" s="8"/>
       <c r="K173" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C174" s="4">
         <v>21</v>
@@ -5708,21 +5791,21 @@
         <v>290</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F174" s="3"/>
       <c r="H174" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I174" s="8"/>
       <c r="K174" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C175" s="4">
         <v>21</v>
@@ -5731,21 +5814,24 @@
         <v>291</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F175" s="3"/>
       <c r="H175" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I175" s="8"/>
       <c r="K175" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="L175" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C176" s="4">
         <v>21</v>
@@ -5754,21 +5840,21 @@
         <v>292</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F176" s="3"/>
       <c r="H176" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I176" s="8"/>
       <c r="K176" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C177" s="4">
         <v>21</v>
@@ -5777,21 +5863,21 @@
         <v>293</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F177" s="3"/>
       <c r="H177" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I177" s="8"/>
       <c r="K177" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C178" s="4">
         <v>21</v>
@@ -5800,21 +5886,21 @@
         <v>294</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F178" s="3"/>
       <c r="H178" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I178" s="8"/>
       <c r="K178" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C179" s="4">
         <v>21</v>
@@ -5823,11 +5909,11 @@
         <v>295</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F179" s="3"/>
       <c r="H179" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I179" s="8"/>
       <c r="K179" s="3"/>
@@ -5835,7 +5921,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C180" s="4">
         <v>21</v>
@@ -5844,11 +5930,11 @@
         <v>296</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F180" s="3"/>
       <c r="H180" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I180" s="8"/>
       <c r="K180" s="3"/>
@@ -5856,7 +5942,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C181" s="4">
         <v>21</v>
@@ -5865,11 +5951,11 @@
         <v>297</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F181" s="3"/>
       <c r="H181" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I181" s="8"/>
       <c r="K181" s="3"/>
@@ -5877,7 +5963,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C182" s="4">
         <v>21</v>
@@ -5886,11 +5972,11 @@
         <v>298</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F182" s="3"/>
       <c r="H182" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I182" s="8"/>
       <c r="K182" s="3"/>
@@ -5898,7 +5984,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C183" s="4">
         <v>21</v>
@@ -5907,11 +5993,11 @@
         <v>299</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F183" s="3"/>
       <c r="H183" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I183" s="8"/>
       <c r="K183" s="3"/>
@@ -5919,7 +6005,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C184" s="4">
         <v>21</v>
@@ -5928,11 +6014,11 @@
         <v>300</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F184" s="3"/>
       <c r="H184" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I184" s="8"/>
       <c r="K184" s="3"/>
@@ -5940,7 +6026,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C185" s="4">
         <v>21</v>
@@ -5949,11 +6035,11 @@
         <v>301</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F185" s="3"/>
       <c r="H185" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I185" s="8"/>
       <c r="K185" s="3"/>
@@ -5961,7 +6047,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C186" s="4">
         <v>21</v>
@@ -5970,21 +6056,21 @@
         <v>302</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F186" s="3"/>
       <c r="H186" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I186" s="8"/>
       <c r="K186" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C187" s="4">
         <v>21</v>
@@ -5993,11 +6079,11 @@
         <v>303</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F187" s="3"/>
       <c r="H187" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I187" s="8"/>
       <c r="K187" s="3"/>
@@ -6005,7 +6091,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C188" s="4">
         <v>21</v>
@@ -6014,11 +6100,11 @@
         <v>304</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F188" s="3"/>
       <c r="H188" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I188" s="8"/>
       <c r="K188" s="3"/>
@@ -6026,7 +6112,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C189" s="4">
         <v>21</v>
@@ -6035,11 +6121,11 @@
         <v>305</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F189" s="3"/>
       <c r="H189" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I189" s="8"/>
       <c r="K189" s="3"/>
@@ -6047,7 +6133,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C190" s="4">
         <v>21</v>
@@ -6056,11 +6142,11 @@
         <v>306</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F190" s="3"/>
       <c r="H190" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I190" s="8"/>
       <c r="K190" s="3"/>
@@ -6068,7 +6154,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C191" s="4">
         <v>21</v>
@@ -6077,11 +6163,11 @@
         <v>307</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F191" s="3"/>
       <c r="H191" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I191" s="8"/>
       <c r="K191" s="3"/>
@@ -6089,7 +6175,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C192" s="4">
         <v>21</v>
@@ -6098,11 +6184,11 @@
         <v>308</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F192" s="3"/>
       <c r="H192" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I192" s="8"/>
       <c r="K192" s="3"/>
@@ -6110,7 +6196,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C193" s="4">
         <v>21</v>
@@ -6119,11 +6205,11 @@
         <v>309</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F193" s="3"/>
       <c r="H193" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I193" s="8"/>
       <c r="K193" s="3"/>
@@ -6131,7 +6217,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C194" s="4">
         <v>21</v>
@@ -6140,11 +6226,11 @@
         <v>310</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F194" s="3"/>
       <c r="H194" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I194" s="8"/>
       <c r="K194" s="3"/>
@@ -6152,7 +6238,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C195" s="4">
         <v>21</v>
@@ -6161,11 +6247,11 @@
         <v>311</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F195" s="3"/>
       <c r="H195" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I195" s="8"/>
       <c r="K195" s="3"/>
@@ -6173,7 +6259,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C196" s="4">
         <v>21</v>
@@ -6182,11 +6268,11 @@
         <v>312</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F196" s="3"/>
       <c r="H196" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I196" s="8"/>
       <c r="K196" s="3"/>
@@ -6194,7 +6280,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C197" s="4">
         <v>21</v>
@@ -6203,11 +6289,11 @@
         <v>313</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F197" s="3"/>
       <c r="H197" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I197" s="8"/>
       <c r="K197" s="3"/>
@@ -6215,7 +6301,7 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C198" s="4">
         <v>21</v>
@@ -6224,11 +6310,11 @@
         <v>314</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F198" s="3"/>
       <c r="H198" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I198" s="8"/>
       <c r="K198" s="3"/>
@@ -6236,7 +6322,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C199" s="4">
         <v>21</v>
@@ -6245,11 +6331,11 @@
         <v>315</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F199" s="3"/>
       <c r="H199" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I199" s="8"/>
       <c r="K199" s="3"/>
@@ -6257,7 +6343,7 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C200" s="4">
         <v>21</v>
@@ -6266,11 +6352,11 @@
         <v>316</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F200" s="3"/>
       <c r="H200" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I200" s="8"/>
       <c r="K200" s="3"/>
@@ -6278,7 +6364,7 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C201" s="4">
         <v>21</v>
@@ -6287,11 +6373,11 @@
         <v>317</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F201" s="3"/>
       <c r="H201" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I201" s="8"/>
       <c r="K201" s="3"/>
@@ -6299,7 +6385,7 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C202" s="4">
         <v>21</v>
@@ -6308,11 +6394,11 @@
         <v>318</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F202" s="3"/>
       <c r="H202" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I202" s="8"/>
       <c r="K202" s="3"/>
@@ -6320,7 +6406,7 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C203" s="4">
         <v>21</v>
@@ -6329,11 +6415,11 @@
         <v>319</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F203" s="3"/>
       <c r="H203" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I203" s="8"/>
       <c r="K203" s="3"/>
@@ -6341,7 +6427,7 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C204" s="4">
         <v>21</v>
@@ -6350,11 +6436,11 @@
         <v>320</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F204" s="3"/>
       <c r="H204" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I204" s="8"/>
       <c r="K204" s="3"/>
@@ -6362,7 +6448,7 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C205" s="4">
         <v>21</v>
@@ -6371,11 +6457,11 @@
         <v>321</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F205" s="3"/>
       <c r="H205" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I205" s="8"/>
       <c r="K205" s="3"/>
@@ -6383,7 +6469,7 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C206" s="4">
         <v>21</v>
@@ -6392,21 +6478,21 @@
         <v>322</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F206" s="3"/>
       <c r="H206" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I206" s="8"/>
       <c r="K206" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C207" s="4">
         <v>21</v>
@@ -6415,11 +6501,11 @@
         <v>323</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F207" s="3"/>
       <c r="H207" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I207" s="8"/>
       <c r="K207" s="3"/>
@@ -6427,7 +6513,7 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C208" s="4">
         <v>21</v>
@@ -6436,11 +6522,11 @@
         <v>324</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F208" s="3"/>
       <c r="H208" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I208" s="8"/>
       <c r="K208" s="3"/>
@@ -6448,7 +6534,7 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C209" s="4">
         <v>21</v>
@@ -6457,11 +6543,11 @@
         <v>325</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F209" s="3"/>
       <c r="H209" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I209" s="8"/>
       <c r="K209" s="3"/>
@@ -6469,7 +6555,7 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C210" s="4">
         <v>21</v>
@@ -6478,11 +6564,11 @@
         <v>326</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F210" s="3"/>
       <c r="H210" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I210" s="8"/>
       <c r="K210" s="3"/>
@@ -6490,7 +6576,7 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C211" s="4">
         <v>21</v>
@@ -6499,11 +6585,11 @@
         <v>327</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F211" s="3"/>
       <c r="H211" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I211" s="8"/>
       <c r="K211" s="3"/>
@@ -6511,7 +6597,7 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C212" s="4">
         <v>21</v>
@@ -6520,11 +6606,11 @@
         <v>328</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F212" s="3"/>
       <c r="H212" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I212" s="8"/>
       <c r="K212" s="3"/>
@@ -6532,7 +6618,7 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C213" s="4">
         <v>21</v>
@@ -6541,11 +6627,11 @@
         <v>329</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F213" s="3"/>
       <c r="H213" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I213" s="8"/>
       <c r="K213" s="3"/>
@@ -6553,7 +6639,7 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C214" s="4">
         <v>21</v>
@@ -6562,11 +6648,11 @@
         <v>330</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F214" s="3"/>
       <c r="H214" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I214" s="8"/>
       <c r="K214" s="3"/>
@@ -6574,7 +6660,7 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C215" s="4">
         <v>21</v>
@@ -6583,11 +6669,11 @@
         <v>331</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F215" s="3"/>
       <c r="H215" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I215" s="8"/>
       <c r="K215" s="3"/>
@@ -6595,7 +6681,7 @@
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C216" s="4">
         <v>21</v>
@@ -6604,11 +6690,11 @@
         <v>332</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F216" s="3"/>
       <c r="H216" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I216" s="8"/>
       <c r="K216" s="3"/>
@@ -6616,7 +6702,7 @@
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C217" s="4">
         <v>21</v>
@@ -6625,11 +6711,11 @@
         <v>333</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F217" s="3"/>
       <c r="H217" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I217" s="8"/>
       <c r="K217" s="3"/>
@@ -6637,7 +6723,7 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C218" s="4">
         <v>21</v>
@@ -6646,11 +6732,11 @@
         <v>334</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F218" s="3"/>
       <c r="H218" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I218" s="8"/>
       <c r="K218" s="3"/>
@@ -6658,7 +6744,7 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C219" s="4">
         <v>21</v>
@@ -6667,11 +6753,11 @@
         <v>335</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F219" s="3"/>
       <c r="H219" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I219" s="8"/>
       <c r="K219" s="3"/>
@@ -6679,7 +6765,7 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C220" s="4">
         <v>21</v>
@@ -6688,11 +6774,11 @@
         <v>336</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F220" s="3"/>
       <c r="H220" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I220" s="8"/>
       <c r="K220" s="3"/>
@@ -6700,7 +6786,7 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C221" s="4">
         <v>21</v>
@@ -6709,11 +6795,11 @@
         <v>337</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F221" s="3"/>
       <c r="H221" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I221" s="8"/>
       <c r="K221" s="3"/>
@@ -6721,7 +6807,7 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C222" s="4">
         <v>21</v>
@@ -6730,11 +6816,11 @@
         <v>338</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F222" s="3"/>
       <c r="H222" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I222" s="8"/>
       <c r="K222" s="3"/>
@@ -6742,7 +6828,7 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C223" s="4">
         <v>21</v>
@@ -6751,11 +6837,11 @@
         <v>339</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F223" s="3"/>
       <c r="H223" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I223" s="8"/>
       <c r="K223" s="3"/>
@@ -6763,7 +6849,7 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C224" s="4">
         <v>21</v>
@@ -6772,21 +6858,21 @@
         <v>340</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F224" s="3"/>
       <c r="H224" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I224" s="8"/>
       <c r="K224" s="3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C225" s="4">
         <v>21</v>
@@ -6795,11 +6881,11 @@
         <v>341</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F225" s="3"/>
       <c r="H225" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I225" s="8"/>
       <c r="K225" s="3"/>
@@ -6807,7 +6893,7 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C226" s="4">
         <v>21</v>
@@ -6816,11 +6902,11 @@
         <v>342</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F226" s="3"/>
       <c r="H226" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I226" s="8"/>
       <c r="K226" s="3"/>
@@ -6828,7 +6914,7 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C227" s="4">
         <v>21</v>
@@ -6837,11 +6923,11 @@
         <v>343</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F227" s="3"/>
       <c r="H227" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I227" s="8"/>
       <c r="K227" s="3"/>
@@ -6849,7 +6935,7 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C228" s="4">
         <v>21</v>
@@ -6858,11 +6944,11 @@
         <v>344</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F228" s="3"/>
       <c r="H228" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I228" s="8"/>
       <c r="K228" s="3"/>
@@ -6870,7 +6956,7 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C229" s="4">
         <v>21</v>
@@ -6879,11 +6965,11 @@
         <v>345</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F229" s="3"/>
       <c r="H229" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I229" s="8"/>
       <c r="K229" s="3"/>
@@ -6891,7 +6977,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C230" s="4">
         <v>21</v>
@@ -6900,11 +6986,11 @@
         <v>346</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F230" s="3"/>
       <c r="H230" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I230" s="8"/>
       <c r="K230" s="3"/>
@@ -6912,7 +6998,7 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C231" s="4">
         <v>21</v>
@@ -6921,11 +7007,11 @@
         <v>347</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F231" s="3"/>
       <c r="H231" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I231" s="8"/>
       <c r="K231" s="3"/>
@@ -6933,7 +7019,7 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C232" s="4">
         <v>21</v>
@@ -6942,11 +7028,11 @@
         <v>348</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F232" s="3"/>
       <c r="H232" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I232" s="8"/>
       <c r="K232" s="3"/>
@@ -6954,7 +7040,7 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C233" s="4">
         <v>21</v>
@@ -6963,11 +7049,11 @@
         <v>349</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F233" s="3"/>
       <c r="H233" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I233" s="8"/>
       <c r="K233" s="3"/>
@@ -6975,7 +7061,7 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C234" s="4">
         <v>21</v>
@@ -6984,11 +7070,11 @@
         <v>350</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F234" s="3"/>
       <c r="H234" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I234" s="8"/>
       <c r="K234" s="3"/>
@@ -6996,49 +7082,49 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C235" s="4">
         <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F235" s="3"/>
       <c r="H235" s="5"/>
       <c r="I235" s="8"/>
       <c r="K235" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C236" s="4">
         <v>21</v>
       </c>
       <c r="D236" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F236" s="3"/>
       <c r="H236" s="5"/>
       <c r="I236" s="8"/>
       <c r="K236" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C237" s="4">
         <v>21</v>
@@ -7047,11 +7133,11 @@
         <v>351</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F237" s="3"/>
       <c r="H237" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I237" s="8"/>
       <c r="K237" s="3"/>
@@ -7059,7 +7145,7 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C238" s="4">
         <v>21</v>
@@ -7068,11 +7154,11 @@
         <v>352</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F238" s="3"/>
       <c r="H238" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I238" s="8"/>
       <c r="K238" s="3"/>
@@ -7080,7 +7166,7 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C239" s="4">
         <v>21</v>
@@ -7089,11 +7175,11 @@
         <v>353</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F239" s="3"/>
       <c r="H239" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I239" s="8"/>
       <c r="K239" s="3"/>
@@ -7101,7 +7187,7 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C240" s="4">
         <v>21</v>
@@ -7110,19 +7196,19 @@
         <v>354</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F240" s="3"/>
       <c r="H240" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I240" s="8"/>
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C241" s="4">
         <v>21</v>
@@ -7131,19 +7217,19 @@
         <v>355</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F241" s="3"/>
       <c r="H241" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I241" s="8"/>
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C242" s="4">
         <v>21</v>
@@ -7152,19 +7238,19 @@
         <v>356</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F242" s="3"/>
       <c r="H242" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I242" s="8"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C243" s="4">
         <v>21</v>
@@ -7173,19 +7259,19 @@
         <v>357</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F243" s="3"/>
       <c r="H243" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I243" s="8"/>
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C244" s="4">
         <v>21</v>
@@ -7194,19 +7280,19 @@
         <v>358</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F244" s="3"/>
       <c r="H244" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I244" s="8"/>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C245" s="4">
         <v>21</v>
@@ -7215,19 +7301,19 @@
         <v>359</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F245" s="3"/>
       <c r="H245" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I245" s="8"/>
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C246" s="4">
         <v>21</v>
@@ -7236,19 +7322,19 @@
         <v>360</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F246" s="3"/>
       <c r="H246" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I246" s="8"/>
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C247" s="4">
         <v>21</v>
@@ -7257,19 +7343,19 @@
         <v>361</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F247" s="3"/>
       <c r="H247" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I247" s="8"/>
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C248" s="4">
         <v>21</v>
@@ -7278,19 +7364,19 @@
         <v>362</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F248" s="3"/>
       <c r="H248" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I248" s="8"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C249" s="4">
         <v>21</v>
@@ -7299,19 +7385,19 @@
         <v>363</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F249" s="3"/>
       <c r="H249" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I249" s="8"/>
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C250" s="4">
         <v>21</v>
@@ -7320,19 +7406,19 @@
         <v>364</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F250" s="3"/>
       <c r="H250" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I250" s="8"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C251" s="4">
         <v>21</v>
@@ -7341,19 +7427,19 @@
         <v>365</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F251" s="3"/>
       <c r="H251" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I251" s="8"/>
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C252" s="4">
         <v>21</v>
@@ -7362,19 +7448,19 @@
         <v>366</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F252" s="3"/>
       <c r="H252" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I252" s="8"/>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C253" s="4">
         <v>21</v>
@@ -7383,19 +7469,19 @@
         <v>367</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F253" s="3"/>
       <c r="H253" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I253" s="8"/>
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C254" s="4">
         <v>21</v>
@@ -7404,21 +7490,24 @@
         <v>368</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F254" s="3"/>
       <c r="H254" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I254" s="8"/>
       <c r="K254" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="L254" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C255" s="4">
         <v>21</v>
@@ -7427,18 +7516,18 @@
         <v>369</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F255" s="3"/>
       <c r="H255" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I255" s="8"/>
       <c r="K255" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E256" s="5"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">

--- a/page/eb09/s01/eb09-s01.xlsx
+++ b/page/eb09/s01/eb09-s01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp2\page\eb09\s01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2C7E2-B8F0-4DC6-95C5-EA69E829B5EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="2685" windowWidth="21735" windowHeight="12090"/>
+    <workbookView xWindow="-28650" yWindow="180" windowWidth="13965" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eb09-s01" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="551">
   <si>
     <t>eb09-s01</t>
   </si>
@@ -1655,9 +1656,6 @@
     <t xml:space="preserve">Sanskrit; double reference to footnote #2: </t>
   </si>
   <si>
-    <t>list runs over to next page</t>
-  </si>
-  <si>
     <t>tables need correction</t>
   </si>
   <si>
@@ -1677,12 +1675,15 @@
   </si>
   <si>
     <t>removed &lt;list&gt;</t>
+  </si>
+  <si>
+    <t>fixed tables; removed &lt;list&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2054,11 +2055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105:L106"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="L148" sqref="L147:L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,13 +2067,15 @@
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="12" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="22.5703125" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2816,7 +2819,7 @@
         <v>533</v>
       </c>
       <c r="L35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3416,7 +3419,7 @@
       <c r="I65" s="8"/>
       <c r="K65" s="3"/>
       <c r="L65" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3499,7 +3502,7 @@
       <c r="I69" s="8"/>
       <c r="K69" s="3"/>
       <c r="L69" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4148,7 +4151,7 @@
       <c r="I99" s="8"/>
       <c r="K99" s="3"/>
       <c r="L99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4172,7 +4175,7 @@
       <c r="I100" s="8"/>
       <c r="K100" s="3"/>
       <c r="L100" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4280,7 +4283,7 @@
       <c r="I105" s="8"/>
       <c r="K105" s="3"/>
       <c r="L105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4304,7 +4307,7 @@
       <c r="I106" s="8"/>
       <c r="K106" s="3"/>
       <c r="L106" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4328,7 +4331,7 @@
       <c r="I107" s="8"/>
       <c r="K107" s="3"/>
       <c r="L107" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4352,7 +4355,7 @@
       <c r="I108" s="8"/>
       <c r="K108" s="3"/>
       <c r="L108" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4439,7 +4442,7 @@
       <c r="I112" s="8"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>232</v>
@@ -4460,7 +4463,7 @@
       <c r="I113" s="8"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>234</v>
@@ -4481,7 +4484,7 @@
       <c r="I114" s="8"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>236</v>
@@ -4502,7 +4505,7 @@
       <c r="I115" s="8"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>238</v>
@@ -4523,7 +4526,7 @@
       <c r="I116" s="8"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>240</v>
@@ -4544,7 +4547,7 @@
       <c r="I117" s="8"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>242</v>
@@ -4565,10 +4568,13 @@
       <c r="I118" s="8"/>
       <c r="K118" s="3"/>
       <c r="L118" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="M118" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>244</v>
@@ -4589,7 +4595,7 @@
       <c r="I119" s="8"/>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>246</v>
@@ -4610,7 +4616,7 @@
       <c r="I120" s="8"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>248</v>
@@ -4633,7 +4639,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>251</v>
@@ -4654,7 +4660,7 @@
       <c r="I122" s="8"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>253</v>
@@ -4675,7 +4681,7 @@
       <c r="I123" s="8"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>255</v>
@@ -4696,7 +4702,7 @@
       <c r="I124" s="8"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>257</v>
@@ -4717,7 +4723,7 @@
       <c r="I125" s="8"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>259</v>
@@ -4738,7 +4744,7 @@
       <c r="I126" s="8"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>261</v>
@@ -4761,7 +4767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>263</v>
@@ -4782,7 +4788,7 @@
       <c r="I128" s="8"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>265</v>
@@ -4803,7 +4809,7 @@
       <c r="I129" s="8"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>267</v>
@@ -4824,7 +4830,7 @@
       <c r="I130" s="8"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>269</v>
@@ -4845,7 +4851,7 @@
       <c r="I131" s="8"/>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>271</v>
@@ -4866,7 +4872,7 @@
       <c r="I132" s="8"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>273</v>
@@ -4887,7 +4893,7 @@
       <c r="I133" s="8"/>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>275</v>
@@ -4908,7 +4914,7 @@
       <c r="I134" s="8"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>277</v>
@@ -4929,7 +4935,7 @@
       <c r="I135" s="8"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>279</v>
@@ -4952,7 +4958,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>281</v>
@@ -4972,8 +4978,11 @@
       </c>
       <c r="I137" s="8"/>
       <c r="K137" s="3"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>283</v>
@@ -4994,7 +5003,7 @@
       <c r="I138" s="8"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>285</v>
@@ -5017,7 +5026,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>287</v>
@@ -5038,7 +5047,7 @@
       <c r="I140" s="8"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>289</v>
@@ -5059,7 +5068,7 @@
       <c r="I141" s="8"/>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>291</v>
@@ -5080,7 +5089,7 @@
       <c r="I142" s="8"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>293</v>
@@ -5101,7 +5110,7 @@
       <c r="I143" s="8"/>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>295</v>
@@ -5122,7 +5131,7 @@
       <c r="I144" s="8"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>297</v>
@@ -5143,7 +5152,7 @@
       <c r="I145" s="8"/>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
         <v>299</v>
@@ -5164,7 +5173,7 @@
       <c r="I146" s="8"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
         <v>301</v>
@@ -5185,7 +5194,7 @@
       <c r="I147" s="8"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
         <v>303</v>
@@ -5206,7 +5215,7 @@
       <c r="I148" s="8"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
         <v>305</v>
@@ -5226,8 +5235,11 @@
       </c>
       <c r="I149" s="8"/>
       <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>307</v>
@@ -5248,7 +5260,7 @@
       <c r="I150" s="8"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>309</v>
@@ -5269,7 +5281,7 @@
       <c r="I151" s="8"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
         <v>311</v>
@@ -5290,7 +5302,7 @@
       <c r="I152" s="8"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>313</v>
@@ -5313,7 +5325,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
         <v>316</v>
@@ -5335,8 +5347,11 @@
       <c r="K154" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>318</v>
@@ -5359,7 +5374,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>320</v>
@@ -5382,7 +5397,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>322</v>
@@ -5405,7 +5420,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
         <v>324</v>
@@ -5428,7 +5443,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>326</v>
@@ -5451,7 +5466,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>328</v>
@@ -5825,7 +5840,7 @@
         <v>542</v>
       </c>
       <c r="L175" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -7501,7 +7516,7 @@
         <v>517</v>
       </c>
       <c r="L254" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">

--- a/page/eb09/s01/eb09-s01.xlsx
+++ b/page/eb09/s01/eb09-s01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp2\page\eb09\s01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2C7E2-B8F0-4DC6-95C5-EA69E829B5EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28650" yWindow="180" windowWidth="13965" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28650" yWindow="180" windowWidth="13965" windowHeight="17565"/>
   </bookViews>
   <sheets>
     <sheet name="eb09-s01" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="553">
   <si>
     <t>eb09-s01</t>
   </si>
@@ -1662,9 +1661,6 @@
     <t>fixed in tei-p; added &lt;pb n="154"/&gt; to note text. Corrected 2 tables</t>
   </si>
   <si>
-    <t>duplicated n2 in tei-p; removed &lt;list&gt;</t>
-  </si>
-  <si>
     <t>created table in tei-p</t>
   </si>
   <si>
@@ -1678,12 +1674,21 @@
   </si>
   <si>
     <t>fixed tables; removed &lt;list&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicated n2 in tei-p; </t>
+  </si>
+  <si>
+    <t>removed &lt;list&gt;; repaired table</t>
+  </si>
+  <si>
+    <t>added @@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2055,11 +2060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
-      <selection activeCell="L148" sqref="L147:L148"/>
+      <selection activeCell="M163" sqref="M163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,7 +3424,7 @@
       <c r="I65" s="8"/>
       <c r="K65" s="3"/>
       <c r="L65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3502,7 +3507,7 @@
       <c r="I69" s="8"/>
       <c r="K69" s="3"/>
       <c r="L69" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4151,7 +4156,7 @@
       <c r="I99" s="8"/>
       <c r="K99" s="3"/>
       <c r="L99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4175,7 +4180,7 @@
       <c r="I100" s="8"/>
       <c r="K100" s="3"/>
       <c r="L100" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4283,7 +4288,7 @@
       <c r="I105" s="8"/>
       <c r="K105" s="3"/>
       <c r="L105" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4307,7 +4312,7 @@
       <c r="I106" s="8"/>
       <c r="K106" s="3"/>
       <c r="L106" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4331,7 +4336,7 @@
       <c r="I107" s="8"/>
       <c r="K107" s="3"/>
       <c r="L107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4355,7 +4360,7 @@
       <c r="I108" s="8"/>
       <c r="K108" s="3"/>
       <c r="L108" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4571,7 +4576,7 @@
         <v>543</v>
       </c>
       <c r="M118" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -4979,7 +4984,7 @@
       <c r="I137" s="8"/>
       <c r="K137" s="3"/>
       <c r="M137" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -5236,7 +5241,7 @@
       <c r="I149" s="8"/>
       <c r="K149" s="3"/>
       <c r="M149" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -5348,7 +5353,7 @@
         <v>315</v>
       </c>
       <c r="M154" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -5442,6 +5447,9 @@
       <c r="K158" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="M158" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
@@ -5491,8 +5499,11 @@
       <c r="L160" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>330</v>
@@ -5515,7 +5526,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
         <v>332</v>
@@ -5541,7 +5552,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>334</v>
@@ -5564,7 +5575,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
         <v>336</v>
@@ -5587,7 +5598,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>338</v>
@@ -5610,7 +5621,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
         <v>340</v>
@@ -5633,7 +5644,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>342</v>
@@ -5656,7 +5667,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>344</v>
@@ -5679,7 +5690,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
         <v>346</v>
@@ -5702,7 +5713,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
         <v>348</v>
@@ -5725,7 +5736,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>350</v>
@@ -5748,7 +5759,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>352</v>
@@ -5771,7 +5782,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
         <v>354</v>
@@ -5794,7 +5805,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>356</v>
@@ -5817,7 +5828,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>358</v>
@@ -5840,10 +5851,13 @@
         <v>542</v>
       </c>
       <c r="L175" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="M175" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
         <v>360</v>
@@ -5866,7 +5880,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>362</v>
@@ -5888,8 +5902,11 @@
       <c r="K177" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>364</v>
@@ -5912,7 +5929,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>366</v>
@@ -5933,7 +5950,7 @@
       <c r="I179" s="8"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>368</v>
@@ -5954,7 +5971,7 @@
       <c r="I180" s="8"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
         <v>370</v>
@@ -5975,7 +5992,7 @@
       <c r="I181" s="8"/>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
         <v>372</v>
@@ -5996,7 +6013,7 @@
       <c r="I182" s="8"/>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>374</v>
@@ -6017,7 +6034,7 @@
       <c r="I183" s="8"/>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
         <v>376</v>
@@ -6038,7 +6055,7 @@
       <c r="I184" s="8"/>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>378</v>
@@ -6059,7 +6076,7 @@
       <c r="I185" s="8"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
         <v>380</v>
@@ -6082,7 +6099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>382</v>
@@ -6103,7 +6120,7 @@
       <c r="I187" s="8"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>384</v>
@@ -6124,7 +6141,7 @@
       <c r="I188" s="8"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
         <v>386</v>
@@ -6145,7 +6162,7 @@
       <c r="I189" s="8"/>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
         <v>388</v>
@@ -6166,7 +6183,7 @@
       <c r="I190" s="8"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>390</v>
@@ -6187,7 +6204,7 @@
       <c r="I191" s="8"/>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>392</v>
@@ -6546,7 +6563,7 @@
       <c r="I208" s="8"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>426</v>
@@ -6567,7 +6584,7 @@
       <c r="I209" s="8"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>428</v>
@@ -6588,7 +6605,7 @@
       <c r="I210" s="8"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>430</v>
@@ -6609,7 +6626,7 @@
       <c r="I211" s="8"/>
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>432</v>
@@ -6629,8 +6646,11 @@
       </c>
       <c r="I212" s="8"/>
       <c r="K212" s="3"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
         <v>434</v>
@@ -6651,7 +6671,7 @@
       <c r="I213" s="8"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
         <v>436</v>
@@ -6672,7 +6692,7 @@
       <c r="I214" s="8"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
         <v>438</v>
@@ -6693,7 +6713,7 @@
       <c r="I215" s="8"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>440</v>
@@ -6714,7 +6734,7 @@
       <c r="I216" s="8"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
         <v>442</v>
@@ -6735,7 +6755,7 @@
       <c r="I217" s="8"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
         <v>444</v>
@@ -6756,7 +6776,7 @@
       <c r="I218" s="8"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3" t="s">
         <v>446</v>
@@ -6777,7 +6797,7 @@
       <c r="I219" s="8"/>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
         <v>448</v>
@@ -6798,7 +6818,7 @@
       <c r="I220" s="8"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
         <v>450</v>
@@ -6819,7 +6839,7 @@
       <c r="I221" s="8"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
         <v>452</v>
@@ -6840,7 +6860,7 @@
       <c r="I222" s="8"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
         <v>454</v>
@@ -6861,7 +6881,7 @@
       <c r="I223" s="8"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
         <v>456</v>
@@ -7220,7 +7240,7 @@
       <c r="I240" s="8"/>
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3" t="s">
         <v>490</v>
@@ -7241,7 +7261,7 @@
       <c r="I241" s="8"/>
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
         <v>492</v>
@@ -7262,7 +7282,7 @@
       <c r="I242" s="8"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
         <v>494</v>
@@ -7283,7 +7303,7 @@
       <c r="I243" s="8"/>
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
         <v>496</v>
@@ -7304,7 +7324,7 @@
       <c r="I244" s="8"/>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>498</v>
@@ -7325,7 +7345,7 @@
       <c r="I245" s="8"/>
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>500</v>
@@ -7346,7 +7366,7 @@
       <c r="I246" s="8"/>
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
         <v>502</v>
@@ -7367,7 +7387,7 @@
       <c r="I247" s="8"/>
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
         <v>504</v>
@@ -7388,7 +7408,7 @@
       <c r="I248" s="8"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
         <v>506</v>
@@ -7409,7 +7429,7 @@
       <c r="I249" s="8"/>
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>508</v>
@@ -7430,7 +7450,7 @@
       <c r="I250" s="8"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>510</v>
@@ -7451,7 +7471,7 @@
       <c r="I251" s="8"/>
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>512</v>
@@ -7472,7 +7492,7 @@
       <c r="I252" s="8"/>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
         <v>514</v>
@@ -7493,7 +7513,7 @@
       <c r="I253" s="8"/>
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>516</v>
@@ -7516,10 +7536,13 @@
         <v>517</v>
       </c>
       <c r="L254" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="M254" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>518</v>
@@ -7542,7 +7565,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E256" s="5"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">

--- a/page/eb09/s01/eb09-s01.xlsx
+++ b/page/eb09/s01/eb09-s01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="557">
   <si>
     <t>eb09-s01</t>
   </si>
@@ -1661,9 +1661,6 @@
     <t>fixed in tei-p; added &lt;pb n="154"/&gt; to note text. Corrected 2 tables</t>
   </si>
   <si>
-    <t>created table in tei-p</t>
-  </si>
-  <si>
     <t>&lt;list&gt; removed</t>
   </si>
   <si>
@@ -1676,13 +1673,28 @@
     <t>fixed tables; removed &lt;list&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">duplicated n2 in tei-p; </t>
-  </si>
-  <si>
     <t>removed &lt;list&gt;; repaired table</t>
   </si>
   <si>
     <t>added @@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicated n2 in tei-p; removed &lt;list&gt; </t>
+  </si>
+  <si>
+    <t>created table in tei-p; removed &lt;list&gt;</t>
+  </si>
+  <si>
+    <t>corrected @@@'s</t>
+  </si>
+  <si>
+    <t>corrected @@</t>
+  </si>
+  <si>
+    <t>corrected 2 notes on same line</t>
+  </si>
+  <si>
+    <t>move note from middle of page to end</t>
   </si>
 </sst>
 </file>
@@ -2063,8 +2075,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
-      <selection activeCell="M163" sqref="M163"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2452,7 @@
       <c r="I16" s="8"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>37</v>
@@ -2458,7 +2472,7 @@
       <c r="I17" s="8"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>39</v>
@@ -2478,7 +2492,7 @@
       <c r="I18" s="8"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -2498,7 +2512,7 @@
       <c r="I19" s="8"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -2518,7 +2532,7 @@
       <c r="I20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -2538,7 +2552,7 @@
       <c r="I21" s="8"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>47</v>
@@ -2558,7 +2572,7 @@
       <c r="I22" s="8"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>49</v>
@@ -2577,8 +2591,11 @@
       </c>
       <c r="I23" s="8"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>51</v>
@@ -2600,7 +2617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>53</v>
@@ -2620,7 +2637,7 @@
       <c r="I25" s="8"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>55</v>
@@ -2640,7 +2657,7 @@
       <c r="I26" s="8"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>57</v>
@@ -2660,7 +2677,7 @@
       <c r="I27" s="8"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>59</v>
@@ -2682,7 +2699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>62</v>
@@ -2702,7 +2719,7 @@
       <c r="I29" s="8"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>64</v>
@@ -2722,7 +2739,7 @@
       <c r="I30" s="8"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>66</v>
@@ -2742,7 +2759,7 @@
       <c r="I31" s="8"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>68</v>
@@ -3424,7 +3441,7 @@
       <c r="I65" s="8"/>
       <c r="K65" s="3"/>
       <c r="L65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3507,7 +3524,7 @@
       <c r="I69" s="8"/>
       <c r="K69" s="3"/>
       <c r="L69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4156,7 +4173,7 @@
       <c r="I99" s="8"/>
       <c r="K99" s="3"/>
       <c r="L99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4180,7 +4197,7 @@
       <c r="I100" s="8"/>
       <c r="K100" s="3"/>
       <c r="L100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4288,7 +4305,7 @@
       <c r="I105" s="8"/>
       <c r="K105" s="3"/>
       <c r="L105" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4312,7 +4329,7 @@
       <c r="I106" s="8"/>
       <c r="K106" s="3"/>
       <c r="L106" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4336,7 +4353,7 @@
       <c r="I107" s="8"/>
       <c r="K107" s="3"/>
       <c r="L107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4360,7 +4377,7 @@
       <c r="I108" s="8"/>
       <c r="K108" s="3"/>
       <c r="L108" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4576,7 +4593,7 @@
         <v>543</v>
       </c>
       <c r="M118" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -4793,7 +4810,7 @@
       <c r="I128" s="8"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>265</v>
@@ -4814,7 +4831,7 @@
       <c r="I129" s="8"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>267</v>
@@ -4835,7 +4852,7 @@
       <c r="I130" s="8"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>269</v>
@@ -4856,7 +4873,7 @@
       <c r="I131" s="8"/>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>271</v>
@@ -4877,7 +4894,7 @@
       <c r="I132" s="8"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>273</v>
@@ -4898,7 +4915,7 @@
       <c r="I133" s="8"/>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>275</v>
@@ -4919,7 +4936,7 @@
       <c r="I134" s="8"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>277</v>
@@ -4940,7 +4957,7 @@
       <c r="I135" s="8"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>279</v>
@@ -4963,7 +4980,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>281</v>
@@ -4983,11 +5000,11 @@
       </c>
       <c r="I137" s="8"/>
       <c r="K137" s="3"/>
-      <c r="M137" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L137" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>283</v>
@@ -5008,7 +5025,7 @@
       <c r="I138" s="8"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>285</v>
@@ -5031,7 +5048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>287</v>
@@ -5052,7 +5069,7 @@
       <c r="I140" s="8"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>289</v>
@@ -5073,7 +5090,7 @@
       <c r="I141" s="8"/>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>291</v>
@@ -5094,7 +5111,7 @@
       <c r="I142" s="8"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>293</v>
@@ -5115,7 +5132,7 @@
       <c r="I143" s="8"/>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>295</v>
@@ -5240,8 +5257,8 @@
       </c>
       <c r="I149" s="8"/>
       <c r="K149" s="3"/>
-      <c r="M149" t="s">
-        <v>548</v>
+      <c r="L149" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -5352,8 +5369,8 @@
       <c r="K154" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="M154" t="s">
-        <v>548</v>
+      <c r="L154" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -5447,8 +5464,8 @@
       <c r="K158" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="M158" t="s">
-        <v>548</v>
+      <c r="L158" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -5500,10 +5517,10 @@
         <v>541</v>
       </c>
       <c r="M160" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>330</v>
@@ -5526,7 +5543,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
         <v>332</v>
@@ -5552,7 +5569,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>334</v>
@@ -5575,7 +5592,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
         <v>336</v>
@@ -5598,7 +5615,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>338</v>
@@ -5621,7 +5638,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
         <v>340</v>
@@ -5644,7 +5661,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>342</v>
@@ -5666,8 +5683,11 @@
       <c r="K167" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L167" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>344</v>
@@ -5690,7 +5710,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
         <v>346</v>
@@ -5713,7 +5733,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
         <v>348</v>
@@ -5736,7 +5756,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>350</v>
@@ -5759,7 +5779,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>352</v>
@@ -5781,8 +5801,11 @@
       <c r="K172" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L172" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
         <v>354</v>
@@ -5805,7 +5828,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>356</v>
@@ -5828,7 +5851,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>358</v>
@@ -5851,13 +5874,10 @@
         <v>542</v>
       </c>
       <c r="L175" t="s">
-        <v>550</v>
-      </c>
-      <c r="M175" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
         <v>360</v>
@@ -5880,7 +5900,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>362</v>
@@ -5902,11 +5922,11 @@
       <c r="K177" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="M177" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L177" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>364</v>
@@ -5929,7 +5949,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>366</v>
@@ -5950,7 +5970,7 @@
       <c r="I179" s="8"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>368</v>
@@ -5971,7 +5991,7 @@
       <c r="I180" s="8"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
         <v>370</v>
@@ -5991,8 +6011,11 @@
       </c>
       <c r="I181" s="8"/>
       <c r="K181" s="3"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L181" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
         <v>372</v>
@@ -6013,7 +6036,7 @@
       <c r="I182" s="8"/>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>374</v>
@@ -6034,7 +6057,7 @@
       <c r="I183" s="8"/>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
         <v>376</v>
@@ -6055,7 +6078,7 @@
       <c r="I184" s="8"/>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>378</v>
@@ -6076,7 +6099,7 @@
       <c r="I185" s="8"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
         <v>380</v>
@@ -6099,7 +6122,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>382</v>
@@ -6120,7 +6143,7 @@
       <c r="I187" s="8"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>384</v>
@@ -6141,7 +6164,7 @@
       <c r="I188" s="8"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
         <v>386</v>
@@ -6162,7 +6185,7 @@
       <c r="I189" s="8"/>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
         <v>388</v>
@@ -6183,7 +6206,7 @@
       <c r="I190" s="8"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>390</v>
@@ -6204,7 +6227,7 @@
       <c r="I191" s="8"/>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>392</v>
@@ -6563,7 +6586,7 @@
       <c r="I208" s="8"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>426</v>
@@ -6584,7 +6607,7 @@
       <c r="I209" s="8"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>428</v>
@@ -6605,7 +6628,7 @@
       <c r="I210" s="8"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>430</v>
@@ -6625,8 +6648,11 @@
       </c>
       <c r="I211" s="8"/>
       <c r="K211" s="3"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L211" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>432</v>
@@ -6646,11 +6672,11 @@
       </c>
       <c r="I212" s="8"/>
       <c r="K212" s="3"/>
-      <c r="M212" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L212" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
         <v>434</v>
@@ -6671,7 +6697,7 @@
       <c r="I213" s="8"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
         <v>436</v>
@@ -6692,7 +6718,7 @@
       <c r="I214" s="8"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
         <v>438</v>
@@ -6713,7 +6739,7 @@
       <c r="I215" s="8"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>440</v>
@@ -6734,7 +6760,7 @@
       <c r="I216" s="8"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
         <v>442</v>
@@ -6755,7 +6781,7 @@
       <c r="I217" s="8"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
         <v>444</v>
@@ -6776,7 +6802,7 @@
       <c r="I218" s="8"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3" t="s">
         <v>446</v>
@@ -6797,7 +6823,7 @@
       <c r="I219" s="8"/>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
         <v>448</v>
@@ -6818,7 +6844,7 @@
       <c r="I220" s="8"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
         <v>450</v>
@@ -6839,7 +6865,7 @@
       <c r="I221" s="8"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
         <v>452</v>
@@ -6860,7 +6886,7 @@
       <c r="I222" s="8"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
         <v>454</v>
@@ -6881,7 +6907,7 @@
       <c r="I223" s="8"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
         <v>456</v>
@@ -6904,7 +6930,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
         <v>458</v>
@@ -6925,7 +6951,7 @@
       <c r="I225" s="8"/>
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
         <v>460</v>
@@ -6946,7 +6972,7 @@
       <c r="I226" s="8"/>
       <c r="K226" s="3"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
         <v>462</v>
@@ -6967,7 +6993,7 @@
       <c r="I227" s="8"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
         <v>464</v>
@@ -6988,7 +7014,7 @@
       <c r="I228" s="8"/>
       <c r="K228" s="3"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
         <v>466</v>
@@ -7009,7 +7035,7 @@
       <c r="I229" s="8"/>
       <c r="K229" s="3"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
         <v>468</v>
@@ -7030,7 +7056,7 @@
       <c r="I230" s="8"/>
       <c r="K230" s="3"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
         <v>470</v>
@@ -7051,7 +7077,7 @@
       <c r="I231" s="8"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
         <v>472</v>
@@ -7072,7 +7098,7 @@
       <c r="I232" s="8"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
         <v>474</v>
@@ -7093,7 +7119,7 @@
       <c r="I233" s="8"/>
       <c r="K233" s="3"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>476</v>
@@ -7114,7 +7140,7 @@
       <c r="I234" s="8"/>
       <c r="K234" s="3"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
         <v>478</v>
@@ -7135,7 +7161,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
         <v>480</v>
@@ -7156,7 +7182,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
         <v>482</v>
@@ -7176,8 +7202,11 @@
       </c>
       <c r="I237" s="8"/>
       <c r="K237" s="3"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
         <v>484</v>
@@ -7198,7 +7227,7 @@
       <c r="I238" s="8"/>
       <c r="K238" s="3"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
         <v>486</v>
@@ -7219,7 +7248,7 @@
       <c r="I239" s="8"/>
       <c r="K239" s="3"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
         <v>488</v>
@@ -7240,7 +7269,7 @@
       <c r="I240" s="8"/>
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3" t="s">
         <v>490</v>
@@ -7261,7 +7290,7 @@
       <c r="I241" s="8"/>
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
         <v>492</v>
@@ -7282,7 +7311,7 @@
       <c r="I242" s="8"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
         <v>494</v>
@@ -7303,7 +7332,7 @@
       <c r="I243" s="8"/>
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
         <v>496</v>
@@ -7324,7 +7353,7 @@
       <c r="I244" s="8"/>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>498</v>
@@ -7345,7 +7374,7 @@
       <c r="I245" s="8"/>
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>500</v>
@@ -7366,7 +7395,7 @@
       <c r="I246" s="8"/>
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
         <v>502</v>
@@ -7387,7 +7416,7 @@
       <c r="I247" s="8"/>
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
         <v>504</v>
@@ -7408,7 +7437,7 @@
       <c r="I248" s="8"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
         <v>506</v>
@@ -7429,7 +7458,7 @@
       <c r="I249" s="8"/>
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>508</v>
@@ -7450,7 +7479,7 @@
       <c r="I250" s="8"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>510</v>
@@ -7471,7 +7500,7 @@
       <c r="I251" s="8"/>
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>512</v>
@@ -7492,7 +7521,7 @@
       <c r="I252" s="8"/>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
         <v>514</v>
@@ -7513,7 +7542,7 @@
       <c r="I253" s="8"/>
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>516</v>
@@ -7536,13 +7565,10 @@
         <v>517</v>
       </c>
       <c r="L254" t="s">
-        <v>545</v>
-      </c>
-      <c r="M254" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>518</v>
@@ -7565,7 +7591,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E256" s="5"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
